--- a/Dicionário Variaveis.xlsx
+++ b/Dicionário Variaveis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonyarrais/Documents/Universidade Federal Fluminense/Disciplinas/2020_1/GET00186 - Estatistica Aplicada II/5 - Consultoria 3 - Projeto Jovens Construtores/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a20a830037c9ff3/Documentos/GitHub/Consultoria_JC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A2E988-2561-CA46-8354-0C3E1AA2B1D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{42A2E988-2561-CA46-8354-0C3E1AA2B1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AFA4B6C-0652-422E-BC60-BB7D4F188BA0}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="540" windowWidth="27440" windowHeight="15220" xr2:uid="{328FF358-7A72-2C48-BCCB-F66C9DF4C020}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{328FF358-7A72-2C48-BCCB-F66C9DF4C020}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>Q5</t>
   </si>
   <si>
-    <t>24.6)No geral, eu estou inclinado a me sentir como um fracassado</t>
-  </si>
-  <si>
     <t>Q6</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Q11</t>
   </si>
   <si>
-    <t>27.6)  Seus amigos</t>
-  </si>
-  <si>
     <t>Q12</t>
   </si>
   <si>
@@ -147,7 +141,13 @@
     <t>Pontuação mais baixa significa discordo totalmente</t>
   </si>
   <si>
-    <t>Pontuação alta sgnifica muito satisfeito</t>
+    <t>27.6) Seus amigos</t>
+  </si>
+  <si>
+    <t>24.6) No geral, eu estou inclinado a me sentir como um fracassado</t>
+  </si>
+  <si>
+    <t>Pontuação alta significa muito satisfeito</t>
   </si>
 </sst>
 </file>
@@ -510,221 +510,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEF7845C-91E3-FC4F-9328-06F04889BEF0}">
-  <dimension ref="B1:D20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C10" sqref="A10:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="112.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="83.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
+      <c r="C20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Dicionário Variaveis.xlsx
+++ b/Dicionário Variaveis.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{42A2E988-2561-CA46-8354-0C3E1AA2B1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AFA4B6C-0652-422E-BC60-BB7D4F188BA0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{328FF358-7A72-2C48-BCCB-F66C9DF4C020}"/>
+    <workbookView minimized="1" xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{328FF358-7A72-2C48-BCCB-F66C9DF4C020}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -513,7 +513,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="A10:C15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
